--- a/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>RPHM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,39 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,8 +710,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +742,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,23 +822,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,23 +961,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>9200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,8 +991,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,14 +1003,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,11 +1052,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1044,14 +1081,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1064,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,23 +1133,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,23 +1229,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,23 +1261,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,11 +1436,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,23 +1453,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,23 +1517,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,20 +1616,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E41" s="3">
         <v>140400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,17 +1646,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E42" s="3">
         <v>27000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1678,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1617,8 +1710,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,20 +1742,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,20 +1774,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E46" s="3">
         <v>171100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1806,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1733,19 +1838,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1762,8 +1870,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,8 +1966,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1858,11 +1978,11 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,20 +2030,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E54" s="3">
         <v>171300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,20 +2092,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,8 +2122,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,20 +2154,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,20 +2186,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,8 +2250,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2116,10 +2262,10 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,20 +2378,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2332,11 +2500,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>140100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,20 +2552,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,20 +2680,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E76" s="3">
         <v>167600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-48700</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,23 +2781,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,8 +2844,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2660,8 +2859,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,8 +3019,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2814,14 +3031,14 @@
         <v>-9700</v>
       </c>
       <c r="E89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,13 +3067,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2861,8 +3082,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2876,8 +3097,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,23 +3161,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>5200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,22 +3335,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>85800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>46200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3121,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,23 +3399,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E102" s="3">
         <v>49100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>RPHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,49 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44104</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -713,8 +715,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,8 +753,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +791,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +849,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,22 +860,22 @@
         <v>9300</v>
       </c>
       <c r="E12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -855,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +921,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +959,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +997,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,31 +1014,33 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -994,8 +1048,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,22 +1063,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1106,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1055,16 +1123,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1072,8 +1140,14 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1081,22 +1155,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-9200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-5100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1104,8 +1178,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,31 +1216,37 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-5100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1168,8 +1254,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +1292,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,31 +1330,37 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1264,31 +1368,37 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-5100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1558,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1439,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1456,31 +1596,37 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-5100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,31 +1672,37 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-5100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1552,36 +1710,42 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44104</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1589,8 +1753,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,26 +1789,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>124700</v>
+      </c>
+      <c r="F41" s="3">
         <v>126400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>140400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>91200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,23 +1823,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F42" s="3">
         <v>31300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>27000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1681,8 +1861,14 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1899,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,26 +1937,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,26 +1975,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>153700</v>
+      </c>
+      <c r="F46" s="3">
         <v>162700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>171100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>93600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +2013,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1841,26 +2051,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1873,8 +2089,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2127,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,8 +2203,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,14 +2221,14 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2241,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,26 +2279,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>154000</v>
+      </c>
+      <c r="F54" s="3">
         <v>162900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>171300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2317,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,26 +2353,28 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2387,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2157,26 +2425,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,26 +2463,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2501,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,25 +2539,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2285,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,26 +2691,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2729,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2821,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,14 +2839,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>140100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2523,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,26 +2897,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-74100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-61400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-52200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,26 +3049,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>147200</v>
+      </c>
+      <c r="F76" s="3">
         <v>156200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>167600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-48700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2715,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,36 +3125,42 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44104</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2784,31 +3168,37 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-5100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3226,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2847,14 +3245,14 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2862,8 +3260,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,31 +3450,37 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-8600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-5700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3488,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,31 +3508,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3100,8 +3542,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,31 +3618,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-27000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3196,8 +3656,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,31 +3824,37 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>85800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>46200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>47200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3370,8 +3862,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,36 +3900,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>49100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>37600</v>
       </c>
-      <c r="G102" s="3">
-        <v>800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>41800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-4500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>RPHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,35 +864,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E17" s="3">
         <v>13000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,26 +1093,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1134,8 +1168,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,26 +1192,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,35 +1262,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,35 +1426,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1590,8 +1660,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1602,35 +1672,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,35 +1754,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,29 +1877,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E41" s="3">
         <v>121100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>124700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>140400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,26 +1916,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E42" s="3">
         <v>17600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>27000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,29 +2039,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,29 +2080,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E46" s="3">
         <v>142700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>153700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>162700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>171100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,28 +2162,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2227,11 +2347,11 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,29 +2408,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E54" s="3">
         <v>144400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>162900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>171300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,8 +2485,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2364,20 +2495,20 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,29 +2565,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,29 +2606,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E60" s="3">
         <v>7900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,28 +2688,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,29 +2852,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,11 +3013,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>140100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,29 +3074,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-97800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,29 +3238,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E76" s="3">
         <v>135300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>147200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>167600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-48700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,35 +3366,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3254,8 +3453,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,35 +3670,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-9700</v>
       </c>
       <c r="G89" s="3">
         <v>-9700</v>
       </c>
       <c r="H89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-8600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3519,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3536,8 +3757,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,35 +3851,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E94" s="3">
         <v>5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4073,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3839,26 +4085,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>85800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>46200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>47200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,35 +4155,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>49100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>41800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>RPHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +878,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E12" s="3">
         <v>8100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E17" s="3">
         <v>12400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,29 +1123,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1171,8 +1205,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,29 +1229,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,38 +1305,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1663,8 +1733,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +1964,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E41" s="3">
         <v>118300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>124700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>140400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,29 +2006,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E42" s="3">
         <v>8600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>31300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>27000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,8 +2050,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,32 +2138,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,32 +2182,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E46" s="3">
         <v>132000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>142700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>153700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>162700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>171100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>93600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,31 +2270,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2206,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2350,11 +2470,11 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2534,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E54" s="3">
         <v>133600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>144400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>162900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>171300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2616,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
         <v>1600</v>
       </c>
       <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,32 +2702,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,32 +2746,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,31 +2834,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,32 +3010,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3016,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>140100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3248,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-110100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-97800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3424,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E76" s="3">
         <v>124200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>147200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>167600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-48700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3456,8 +3655,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-9700</v>
       </c>
       <c r="H89" s="3">
         <v>-9700</v>
       </c>
       <c r="I89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-8600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3743,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3760,8 +3981,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E94" s="3">
         <v>9100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>85800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>46200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>47200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>49100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>37600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>41800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>RPHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,79 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +780,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +830,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,52 +904,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F12" s="3">
         <v>9900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7100</v>
       </c>
       <c r="H12" s="3">
         <v>9300</v>
       </c>
       <c r="I12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1000,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1050,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,52 +1121,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F17" s="3">
         <v>13800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,43 +1182,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1241,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,14 +1252,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1208,11 +1275,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1220,8 +1287,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,43 +1302,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-12300</v>
+        <v>-13600</v>
       </c>
       <c r="F21" s="3">
         <v>-13000</v>
       </c>
       <c r="G21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-10600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-12700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-9200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,52 +1387,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13000</v>
+        <v>-15100</v>
       </c>
       <c r="E23" s="3">
-        <v>-12300</v>
+        <v>-13600</v>
       </c>
       <c r="F23" s="3">
         <v>-13000</v>
       </c>
       <c r="G23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1487,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1537,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13000</v>
+        <v>-15100</v>
       </c>
       <c r="E26" s="3">
-        <v>-12300</v>
+        <v>-13600</v>
       </c>
       <c r="F26" s="3">
         <v>-13000</v>
       </c>
       <c r="G26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13000</v>
+        <v>-15100</v>
       </c>
       <c r="E27" s="3">
-        <v>-12300</v>
+        <v>-13600</v>
       </c>
       <c r="F27" s="3">
         <v>-13000</v>
       </c>
       <c r="G27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1837,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,14 +1852,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1736,11 +1875,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1748,52 +1887,64 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13000</v>
+        <v>-15100</v>
       </c>
       <c r="E33" s="3">
-        <v>-12300</v>
+        <v>-13600</v>
       </c>
       <c r="F33" s="3">
         <v>-13000</v>
       </c>
       <c r="G33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1987,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13000</v>
+        <v>-15100</v>
       </c>
       <c r="E35" s="3">
-        <v>-12300</v>
+        <v>-13600</v>
       </c>
       <c r="F35" s="3">
         <v>-13000</v>
       </c>
       <c r="G35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,38 +2136,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F41" s="3">
         <v>62100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>118300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>121100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>124700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>126400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>140400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>91200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,35 +2182,41 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>81200</v>
+      </c>
+      <c r="F42" s="3">
         <v>53900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>17600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>23000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>31300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>27000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2232,14 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2282,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,38 +2332,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4900</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
         <v>5200</v>
       </c>
       <c r="F45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,38 +2382,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>106400</v>
+      </c>
+      <c r="F46" s="3">
         <v>121000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>132000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>142700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>153700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>162700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>171100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>93600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2432,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,38 +2482,44 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2532,14 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2582,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2682,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2473,14 +2712,14 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2732,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,38 +2782,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>108200</v>
+      </c>
+      <c r="F54" s="3">
         <v>122500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>133600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>144400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>154000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>162900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>171300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>95300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,38 +2876,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2922,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,38 +2972,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F59" s="3">
         <v>7300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,38 +3022,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F60" s="3">
         <v>9500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +3072,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,37 +3122,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2881,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,38 +3322,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3187,14 +3522,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>140100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,38 +3592,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-136700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-123100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-110100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-97800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-84700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-74100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-61400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-52200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,38 +3792,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F76" s="3">
         <v>112000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>124200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>135300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>147200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>156200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>167600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-48700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3892,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13000</v>
+        <v>-15100</v>
       </c>
       <c r="E81" s="3">
-        <v>-12300</v>
+        <v>-13600</v>
       </c>
       <c r="F81" s="3">
         <v>-13000</v>
       </c>
       <c r="G81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +4021,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,11 +4055,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +4067,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4317,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,43 +4391,45 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -3996,8 +4437,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4537,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-45400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>9100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-27000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,52 +4807,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>85800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>46200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>47200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,48 +4907,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-56100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>49100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>37600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>41800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>RPHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +919,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E12" s="3">
         <v>11000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1149,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,38 +1212,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,14 +1289,14 @@
         <v>1000</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1281,8 +1315,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,38 +1339,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,47 +1433,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1592,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1645,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,14 +1925,14 @@
         <v>-1000</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1881,8 +1951,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1893,47 +1963,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2069,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2224,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
         <v>30400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>118300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>124700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>126400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>140400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2275,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E42" s="3">
         <v>63400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>81200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>53900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>23000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,8 +2328,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,41 +2434,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2487,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E46" s="3">
         <v>97000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>121000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>132000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>153700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>162700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>171100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>93600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,40 +2593,43 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2718,11 +2838,11 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +2911,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E54" s="3">
         <v>98900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>133600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>144400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>162900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>171300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,8 +3008,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2887,32 +3018,32 @@
         <v>1800</v>
       </c>
       <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1600</v>
       </c>
       <c r="H57" s="3">
         <v>1600</v>
       </c>
       <c r="I57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,41 +3112,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3165,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E60" s="3">
         <v>10500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,40 +3271,43 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3483,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E66" s="3">
         <v>11800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,11 +3696,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>140100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3769,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-171300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-151800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-136700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-123100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-110100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-97800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-84700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +3981,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E76" s="3">
         <v>87100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>124200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>135300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>147200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>167600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-48700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4145,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4061,8 +4260,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4537,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-9700</v>
       </c>
       <c r="K89" s="3">
         <v>-9700</v>
       </c>
       <c r="L89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-8600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,20 +4613,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4414,13 +4635,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4431,8 +4652,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,47 +4770,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E94" s="3">
         <v>18500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,47 +5056,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>85800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,47 +5162,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E102" s="3">
         <v>10500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-56100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>41800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RPHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>RPHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +741,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +797,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,50 +933,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E12" s="3">
         <v>14400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E17" s="3">
         <v>21000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,8 +1230,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,41 +1242,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1310,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,20 +1320,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
         <v>1000</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1318,8 +1352,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1330,8 +1364,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,41 +1376,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1532,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1980,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,20 +1992,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
         <v>-1000</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1954,8 +2024,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,44 +2311,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>118300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>124700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>140400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>91200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,41 +2365,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E42" s="3">
         <v>133600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>63400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>81200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>53900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2421,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,44 +2533,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,44 +2589,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E46" s="3">
         <v>146300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>97000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>121000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>132000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>142700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>153700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>162700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>171100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>93600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,43 +2701,46 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2841,11 +2961,11 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,44 +3037,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E54" s="3">
         <v>148000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>133600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>144400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,44 +3139,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
       </c>
       <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1600</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
       </c>
       <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,44 +3249,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,44 +3305,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E60" s="3">
         <v>13700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,43 +3417,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,44 +3641,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E66" s="3">
         <v>15500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,11 +3867,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>140100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,44 +3943,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-190500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-171300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-151800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-136700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-110100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-97800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-84700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,44 +4167,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E76" s="3">
         <v>132500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>87100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>135300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>147200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>156200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>167600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-48700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4263,8 +4462,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4754,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-9700</v>
       </c>
       <c r="L89" s="3">
         <v>-9700</v>
       </c>
       <c r="M89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="N89" s="3">
         <v>-8600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +4834,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4623,14 +4844,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4638,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4655,8 +4876,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,50 +5000,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>18500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,50 +5302,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>63800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>85800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>46200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,50 +5414,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-42200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>37600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>41800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
